--- a/OD.xlsx
+++ b/OD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaswolff/Desktop/24_20/AUTITOS/TAREAS/TAREA_3_AUTITOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D769D6B7-4994-3140-B1DD-363B418237DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472F3F1-D6AC-3346-8D70-B7D8BE1CD75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{47A9C682-B717-7149-BB07-D20E15C2D75B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>E1</t>
   </si>
@@ -53,20 +53,38 @@
     <t>E4</t>
   </si>
   <si>
-    <t>∞</t>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Oi,2012</t>
+  </si>
+  <si>
+    <t>Dj,2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -180,6 +199,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,15 +535,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706E065D-2BF1-D04C-B9BF-7E20E9C8D441}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="B1">
         <v>301</v>
       </c>
@@ -553,355 +577,427 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>301</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5.15</v>
-      </c>
-      <c r="J2" s="2">
-        <v>8.85</v>
-      </c>
-      <c r="K2" s="3">
-        <v>16.010000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>284</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>811</v>
+      </c>
+      <c r="I2" s="3">
+        <v>98</v>
+      </c>
+      <c r="J2" s="3">
+        <v>121</v>
+      </c>
+      <c r="K2" s="4">
+        <v>645</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>302</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.85</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.31</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.69</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="H3" s="5">
-        <v>9.23</v>
-      </c>
-      <c r="I3" s="5">
-        <v>6.13</v>
-      </c>
-      <c r="J3" s="5">
-        <v>7.39</v>
-      </c>
-      <c r="K3" s="6">
-        <v>14.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>845</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>171</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1622</v>
+      </c>
+      <c r="I3" s="6">
+        <v>836</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1029</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1663</v>
+      </c>
+      <c r="L3" s="6">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>308</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.69</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.81</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.81</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2.31</v>
-      </c>
-      <c r="H4" s="5">
-        <v>9.02</v>
-      </c>
-      <c r="I4" s="5">
-        <v>6.74</v>
-      </c>
-      <c r="J4" s="5">
-        <v>6.05</v>
-      </c>
-      <c r="K4" s="6">
-        <v>13.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>107</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1563</v>
+      </c>
+      <c r="K4" s="7">
+        <v>3480</v>
+      </c>
+      <c r="L4" s="6">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>314</v>
       </c>
-      <c r="B5" s="4">
-        <v>3.11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.81</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="H5" s="5">
-        <v>7.04</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5.55</v>
-      </c>
-      <c r="J5" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="K5" s="6">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>25</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>316</v>
       </c>
-      <c r="B6" s="4">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.81</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>7.74</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5.18</v>
-      </c>
-      <c r="J6" s="5">
-        <v>7.43</v>
-      </c>
-      <c r="K6" s="6">
-        <v>14.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1202</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>108</v>
+      </c>
+      <c r="H6" s="6">
+        <v>193</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>529</v>
+      </c>
+      <c r="K6" s="7">
+        <v>338</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>318</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2.31</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5.97</v>
-      </c>
-      <c r="J7" s="5">
-        <v>9.01</v>
-      </c>
-      <c r="K7" s="6">
-        <v>15.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="C8" s="5">
-        <v>9.23</v>
-      </c>
-      <c r="D8" s="5">
-        <v>9.02</v>
-      </c>
-      <c r="E8" s="5">
-        <v>7.04</v>
-      </c>
-      <c r="F8" s="5">
-        <v>7.74</v>
-      </c>
-      <c r="G8" s="5">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
-        <v>5.15</v>
-      </c>
-      <c r="C9" s="5">
-        <v>6.13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6.74</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5.55</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5.18</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5.97</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>709</v>
+      </c>
+      <c r="C8" s="6">
+        <v>369</v>
+      </c>
+      <c r="D8" s="6">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6">
+        <v>126</v>
+      </c>
+      <c r="F8" s="6">
+        <v>37</v>
+      </c>
+      <c r="G8" s="6">
+        <v>107</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>894</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6">
+        <v>97</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1016</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
-        <v>8.85</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7.39</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6.05</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="F10" s="5">
-        <v>7.43</v>
-      </c>
-      <c r="G10" s="5">
-        <v>9.01</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="5">
+        <v>714</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3514</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1457</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1208</v>
+      </c>
+      <c r="F10" s="6">
+        <v>728</v>
+      </c>
+      <c r="G10" s="6">
+        <v>529</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="C11" s="8">
-        <v>14.78</v>
-      </c>
-      <c r="D11" s="8">
-        <v>13.56</v>
-      </c>
-      <c r="E11" s="8">
-        <v>13.12</v>
-      </c>
-      <c r="F11" s="8">
-        <v>14.04</v>
-      </c>
-      <c r="G11" s="8">
-        <v>15.82</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>4</v>
+      <c r="B11" s="8">
+        <v>821</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3671</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1886</v>
+      </c>
+      <c r="E11" s="9">
+        <v>949</v>
+      </c>
+      <c r="F11" s="9">
+        <v>344</v>
+      </c>
+      <c r="G11" s="9">
+        <v>650</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2245</v>
+      </c>
+      <c r="C12">
+        <v>10780</v>
+      </c>
+      <c r="D12">
+        <v>3488</v>
+      </c>
+      <c r="E12">
+        <v>2307</v>
+      </c>
+      <c r="F12">
+        <v>1377</v>
+      </c>
+      <c r="G12">
+        <v>1395</v>
+      </c>
+      <c r="H12">
+        <v>2626</v>
+      </c>
+      <c r="I12">
+        <v>959</v>
+      </c>
+      <c r="J12">
+        <v>3243</v>
+      </c>
+      <c r="K12">
+        <v>6126</v>
+      </c>
+      <c r="L12" s="6">
+        <v>34546</v>
       </c>
     </row>
   </sheetData>
